--- a/assets/NBS-files/NBSList-en.xlsx
+++ b/assets/NBS-files/NBSList-en.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="190">
   <si>
     <t>ID</t>
   </si>
@@ -585,6 +585,15 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>Participatory</t>
+  </si>
+  <si>
+    <t>Technological</t>
+  </si>
+  <si>
+    <t>Territorial</t>
   </si>
 </sst>
 </file>
@@ -929,7 +938,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,8 +1016,8 @@
       <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="G2">
-        <v>3</v>
+      <c r="G2" t="s">
+        <v>187</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -1057,8 +1066,8 @@
       <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="G3">
-        <v>3</v>
+      <c r="G3" t="s">
+        <v>187</v>
       </c>
       <c r="H3" t="s">
         <v>30</v>
@@ -1107,8 +1116,8 @@
       <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="G4">
-        <v>3</v>
+      <c r="G4" t="s">
+        <v>187</v>
       </c>
       <c r="H4" t="s">
         <v>39</v>
@@ -1157,8 +1166,8 @@
       <c r="F5" t="s">
         <v>47</v>
       </c>
-      <c r="G5">
-        <v>3</v>
+      <c r="G5" t="s">
+        <v>187</v>
       </c>
       <c r="H5" t="s">
         <v>48</v>
@@ -1207,8 +1216,8 @@
       <c r="F6" t="s">
         <v>56</v>
       </c>
-      <c r="G6">
-        <v>4</v>
+      <c r="G6" t="s">
+        <v>187</v>
       </c>
       <c r="H6" t="s">
         <v>57</v>
@@ -1257,8 +1266,8 @@
       <c r="F7" t="s">
         <v>65</v>
       </c>
-      <c r="G7">
-        <v>1</v>
+      <c r="G7" t="s">
+        <v>188</v>
       </c>
       <c r="H7" t="s">
         <v>57</v>
@@ -1307,8 +1316,8 @@
       <c r="F8" t="s">
         <v>74</v>
       </c>
-      <c r="G8">
-        <v>1</v>
+      <c r="G8" t="s">
+        <v>188</v>
       </c>
       <c r="H8" t="s">
         <v>75</v>
@@ -1357,8 +1366,8 @@
       <c r="F9" t="s">
         <v>83</v>
       </c>
-      <c r="G9">
-        <v>1</v>
+      <c r="G9" t="s">
+        <v>188</v>
       </c>
       <c r="H9" t="s">
         <v>84</v>
@@ -1407,8 +1416,8 @@
       <c r="F10" t="s">
         <v>92</v>
       </c>
-      <c r="G10">
-        <v>1</v>
+      <c r="G10" t="s">
+        <v>188</v>
       </c>
       <c r="H10" t="s">
         <v>93</v>
@@ -1457,8 +1466,8 @@
       <c r="F11" t="s">
         <v>101</v>
       </c>
-      <c r="G11">
-        <v>1</v>
+      <c r="G11" t="s">
+        <v>188</v>
       </c>
       <c r="H11" t="s">
         <v>93</v>
@@ -1507,8 +1516,8 @@
       <c r="F12" t="s">
         <v>109</v>
       </c>
-      <c r="G12">
-        <v>1</v>
+      <c r="G12" t="s">
+        <v>188</v>
       </c>
       <c r="H12" t="s">
         <v>110</v>
@@ -1557,8 +1566,8 @@
       <c r="F13" t="s">
         <v>118</v>
       </c>
-      <c r="G13">
-        <v>4</v>
+      <c r="G13" t="s">
+        <v>189</v>
       </c>
       <c r="H13" t="s">
         <v>119</v>
@@ -1607,8 +1616,8 @@
       <c r="F14" t="s">
         <v>127</v>
       </c>
-      <c r="G14">
-        <v>4</v>
+      <c r="G14" t="s">
+        <v>189</v>
       </c>
       <c r="H14" t="s">
         <v>110</v>
@@ -1657,8 +1666,8 @@
       <c r="F15" t="s">
         <v>135</v>
       </c>
-      <c r="G15">
-        <v>4</v>
+      <c r="G15" t="s">
+        <v>189</v>
       </c>
       <c r="H15" t="s">
         <v>136</v>
@@ -1707,8 +1716,8 @@
       <c r="F16" t="s">
         <v>144</v>
       </c>
-      <c r="G16">
-        <v>4</v>
+      <c r="G16" t="s">
+        <v>189</v>
       </c>
       <c r="H16" t="s">
         <v>57</v>
@@ -1757,8 +1766,8 @@
       <c r="F17" t="s">
         <v>152</v>
       </c>
-      <c r="G17">
-        <v>4</v>
+      <c r="G17" t="s">
+        <v>189</v>
       </c>
       <c r="H17" t="s">
         <v>119</v>
@@ -1807,8 +1816,8 @@
       <c r="F18" t="s">
         <v>159</v>
       </c>
-      <c r="G18">
-        <v>4</v>
+      <c r="G18" t="s">
+        <v>189</v>
       </c>
       <c r="H18" t="s">
         <v>160</v>
@@ -1857,8 +1866,8 @@
       <c r="F19" t="s">
         <v>168</v>
       </c>
-      <c r="G19">
-        <v>4</v>
+      <c r="G19" t="s">
+        <v>189</v>
       </c>
       <c r="H19" t="s">
         <v>84</v>
@@ -1894,6 +1903,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="375d9362-4e4e-465c-969b-1e319f53dd2d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a46cb29e-2df9-4001-8e17-fc7aa34bdb15" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E7655EC31A85E0478B979D85E0E5BC63" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fa82311359530e90a5985a592b46aa11">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="375d9362-4e4e-465c-969b-1e319f53dd2d" xmlns:ns3="a46cb29e-2df9-4001-8e17-fc7aa34bdb15" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e3c4c86c0c38a5b9b1772b3e435b11b3" ns2:_="" ns3:_="">
     <xsd:import namespace="375d9362-4e4e-465c-969b-1e319f53dd2d"/>
@@ -2128,27 +2157,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AC0D103-AFEB-4FD9-9AF6-490AFB6D9BDD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="375d9362-4e4e-465c-969b-1e319f53dd2d"/>
+    <ds:schemaRef ds:uri="a46cb29e-2df9-4001-8e17-fc7aa34bdb15"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="375d9362-4e4e-465c-969b-1e319f53dd2d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a46cb29e-2df9-4001-8e17-fc7aa34bdb15" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E764E28-0A6C-45C3-9955-160405A474DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94D0EB56-CFF5-402D-A9CD-65359DFF6163}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2165,23 +2193,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E764E28-0A6C-45C3-9955-160405A474DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AC0D103-AFEB-4FD9-9AF6-490AFB6D9BDD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="375d9362-4e4e-465c-969b-1e319f53dd2d"/>
-    <ds:schemaRef ds:uri="a46cb29e-2df9-4001-8e17-fc7aa34bdb15"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>